--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE94A50-A632-42CD-A10B-73B652C30442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F76AEAC-AF00-493B-8E48-889351F6F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{FD32BCDE-DF26-4466-9E29-3D4E714CA577}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{CB9BB9D8-BF7B-45CF-BE7B-D5A19AB34FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
     <t xml:space="preserve"> DSN</t>
   </si>
   <si>
-    <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\Student\MecE265_Ass01_dnobes.SLDPRT</t>
+    <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\Student\MecE265_Ass01_dnobes.SLDPRT</t>
   </si>
   <si>
     <t>dnobes</t>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9C815-FD91-48E3-85FF-48A19E826867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A38E4E-DF22-43F5-9FFB-78F1FD9D4BD4}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F76AEAC-AF00-493B-8E48-889351F6F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{845ADB43-1A36-4953-9D70-A42EF526B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{CB9BB9D8-BF7B-45CF-BE7B-D5A19AB34FB9}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{BA8D3044-9B75-4C05-A7B4-96507D68BB29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A38E4E-DF22-43F5-9FFB-78F1FD9D4BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B28DB61-EA03-438A-97C5-B938FAB587FD}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{845ADB43-1A36-4953-9D70-A42EF526B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00B67D6-73A8-46BB-B4CB-CDEA8135F2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{BA8D3044-9B75-4C05-A7B4-96507D68BB29}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{31060D36-9F5D-4B51-9FBB-7E4A7987C25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="314">
   <si>
     <t>DRW_NAME</t>
   </si>
@@ -685,9 +685,6 @@
   </si>
   <si>
     <t>C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\Student\MecE265_Ass01_dnobes.SLDPRT</t>
-  </si>
-  <si>
-    <t>dnobes</t>
   </si>
   <si>
     <t>DimName</t>
@@ -1393,10 +1390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B28DB61-EA03-438A-97C5-B938FAB587FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8E1BFF-5F61-4FA9-B493-715952927171}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V106" workbookViewId="0">
+      <selection activeCell="X121" sqref="X121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -1479,7 +1478,7 @@
         <v>43830.581354166665</v>
       </c>
       <c r="D2" s="2">
-        <v>44741.428217592591</v>
+        <v>44778.62158564815</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -5414,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="2">
-        <v>44446.440254629626</v>
+        <v>44778.599699074075</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6290,13 +6289,13 @@
         <v>137</v>
       </c>
       <c r="H72" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I72" s="2">
         <v>43828.534212962964</v>
       </c>
       <c r="J72" s="2">
-        <v>44446.440254629626</v>
+        <v>44778.599699074075</v>
       </c>
       <c r="K72">
         <v>7.5390367588535021E-11</v>
@@ -6370,7 +6369,7 @@
     </row>
     <row r="73" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>50</v>
@@ -6382,132 +6381,132 @@
         <v>61</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="K73" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="L73" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="N73" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="O73" s="4" t="s">
+      <c r="P73" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="P73" s="4" t="s">
+      <c r="Q73" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="Q73" s="4" t="s">
+      <c r="R73" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="R73" s="4" t="s">
+      <c r="S73" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="S73" s="4" t="s">
+      <c r="T73" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T73" s="4" t="s">
+      <c r="U73" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="U73" s="4" t="s">
+      <c r="V73" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="V73" s="4" t="s">
+      <c r="W73" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="W73" s="4" t="s">
+      <c r="X73" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="X73" s="4" t="s">
+      <c r="Y73" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="Y73" s="4" t="s">
+      <c r="Z73" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Z73" s="4" t="s">
+      <c r="AA73" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AA73" s="4" t="s">
+      <c r="AB73" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AB73" s="4" t="s">
+      <c r="AC73" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AC73" s="4" t="s">
+      <c r="AD73" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AD73" s="4" t="s">
+      <c r="AE73" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AE73" s="4" t="s">
+      <c r="AF73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AF73" s="4" t="s">
+      <c r="AG73" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AG73" s="4" t="s">
+      <c r="AH73" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AH73" s="4" t="s">
+      <c r="AI73" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AI73" s="4" t="s">
+      <c r="AJ73" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AJ73" s="4" t="s">
+      <c r="AK73" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AK73" s="4" t="s">
+      <c r="AL73" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="AL73" s="4" t="s">
+      <c r="AM73" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AM73" s="4" t="s">
+      <c r="AN73" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AN73" s="4" t="s">
+      <c r="AO73" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AO73" s="4" t="s">
+      <c r="AP73" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AP73" s="4" t="s">
+      <c r="AQ73" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AQ73" s="4" t="s">
+      <c r="AR73" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AR73" s="4" t="s">
+      <c r="AS73" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="AS73" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
@@ -6606,13 +6605,13 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.3145491167228277E-2</v>
+        <v>2.314549116722826E-2</v>
       </c>
       <c r="AQ74">
         <v>7.5268556282157187E-2</v>
       </c>
       <c r="AR74">
-        <v>2.3145491167228277E-2</v>
+        <v>2.3145491167228263E-2</v>
       </c>
       <c r="AS74">
         <v>0.12776855628215719</v>
@@ -6620,7 +6619,7 @@
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
@@ -6659,10 +6658,10 @@
         <v>-1</v>
       </c>
       <c r="N75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V75">
         <v>22</v>
@@ -6725,13 +6724,13 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>9.5907935479382006E-2</v>
+        <v>9.5907935479381978E-2</v>
       </c>
       <c r="AQ75">
-        <v>0.11592431446097548</v>
+        <v>0.11592431446097549</v>
       </c>
       <c r="AR75">
-        <v>0.11888304685507464</v>
+        <v>0.11888304685507461</v>
       </c>
       <c r="AS75">
         <v>0.1396127981033389</v>
@@ -6739,7 +6738,7 @@
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
@@ -6852,7 +6851,7 @@
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -6951,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="AP77">
-        <v>3.5145491167228288E-2</v>
+        <v>3.5145491167228281E-2</v>
       </c>
       <c r="AQ77">
         <v>7.5268556282157187E-2</v>
       </c>
       <c r="AR77">
-        <v>3.5145491167228288E-2</v>
+        <v>3.5145491167228281E-2</v>
       </c>
       <c r="AS77">
         <v>9.7768556282157193E-2</v>
@@ -6965,7 +6964,7 @@
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
@@ -7004,10 +7003,10 @@
         <v>-1</v>
       </c>
       <c r="N78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V78">
         <v>15</v>
@@ -7070,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>0.11713827695980329</v>
+        <v>0.11713827695980325</v>
       </c>
       <c r="AQ78">
-        <v>0.12214355628215724</v>
+        <v>0.12214355628215723</v>
       </c>
       <c r="AR78">
-        <v>9.7652705374653356E-2</v>
+        <v>9.7652705374653342E-2</v>
       </c>
       <c r="AS78">
         <v>0.13339355628215716</v>
@@ -7084,7 +7083,7 @@
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
@@ -7123,10 +7122,10 @@
         <v>-1</v>
       </c>
       <c r="N79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V79">
         <v>8.0000000000000018</v>
@@ -7189,13 +7188,13 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>0.11163813185434764</v>
+        <v>0.11163813185434761</v>
       </c>
       <c r="AQ79">
         <v>0.12352591559503792</v>
       </c>
       <c r="AR79">
-        <v>0.10315285048010901</v>
+        <v>0.10315285048010898</v>
       </c>
       <c r="AS79">
         <v>0.13201119696927646</v>
@@ -7203,39 +7202,39 @@
     </row>
     <row r="80" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B81" t="b">
         <v>0</v>
@@ -7267,7 +7266,7 @@
     </row>
     <row r="82" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B82" t="b">
         <v>0</v>
@@ -7299,69 +7298,69 @@
     </row>
     <row r="83" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="L83" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="M83" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="O83" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="O83" s="4" t="s">
+      <c r="P83" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="Q83" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Q83" s="4" t="s">
+      <c r="R83" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="R83" s="4" t="s">
+      <c r="S83" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="S83" s="4" t="s">
+      <c r="T83" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="T83" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -7423,39 +7422,39 @@
     </row>
     <row r="85" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>172</v>
       </c>
       <c r="I85" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -7487,7 +7486,7 @@
     </row>
     <row r="87" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
@@ -7771,13 +7770,13 @@
         <v>137</v>
       </c>
       <c r="H91" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I91" s="2">
         <v>43828.534212962964</v>
       </c>
       <c r="J91" s="2">
-        <v>44446.440254629626</v>
+        <v>44778.599699074075</v>
       </c>
       <c r="K91">
         <v>7.5390367588535021E-11</v>
@@ -7851,7 +7850,7 @@
     </row>
     <row r="92" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>50</v>
@@ -7863,132 +7862,132 @@
         <v>61</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="G92" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="H92" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="J92" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="K92" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="L92" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="O92" s="4" t="s">
+      <c r="P92" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="Q92" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="Q92" s="4" t="s">
+      <c r="R92" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="R92" s="4" t="s">
+      <c r="S92" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="S92" s="4" t="s">
+      <c r="T92" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T92" s="4" t="s">
+      <c r="U92" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="U92" s="4" t="s">
+      <c r="V92" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="V92" s="4" t="s">
+      <c r="W92" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="W92" s="4" t="s">
+      <c r="X92" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="X92" s="4" t="s">
+      <c r="Y92" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="Y92" s="4" t="s">
+      <c r="Z92" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Z92" s="4" t="s">
+      <c r="AA92" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AA92" s="4" t="s">
+      <c r="AB92" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AB92" s="4" t="s">
+      <c r="AC92" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AC92" s="4" t="s">
+      <c r="AD92" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AD92" s="4" t="s">
+      <c r="AE92" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AE92" s="4" t="s">
+      <c r="AF92" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AF92" s="4" t="s">
+      <c r="AG92" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AG92" s="4" t="s">
+      <c r="AH92" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AH92" s="4" t="s">
+      <c r="AI92" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AI92" s="4" t="s">
+      <c r="AJ92" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AJ92" s="4" t="s">
+      <c r="AK92" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AK92" s="4" t="s">
+      <c r="AL92" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="AL92" s="4" t="s">
+      <c r="AM92" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AM92" s="4" t="s">
+      <c r="AN92" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AN92" s="4" t="s">
+      <c r="AO92" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AO92" s="4" t="s">
+      <c r="AP92" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AP92" s="4" t="s">
+      <c r="AQ92" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AQ92" s="4" t="s">
+      <c r="AR92" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AR92" s="4" t="s">
+      <c r="AS92" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="AS92" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
@@ -8101,7 +8100,7 @@
     </row>
     <row r="94" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B94" t="b">
         <v>0</v>
@@ -8140,16 +8139,16 @@
         <v>-1</v>
       </c>
       <c r="N94" t="s">
+        <v>300</v>
+      </c>
+      <c r="O94" t="s">
         <v>301</v>
       </c>
-      <c r="O94" t="s">
+      <c r="R94" t="s">
         <v>302</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>303</v>
-      </c>
-      <c r="S94" t="s">
-        <v>304</v>
       </c>
       <c r="V94">
         <v>14.55</v>
@@ -8215,18 +8214,18 @@
         <v>7.7845993386026005E-2</v>
       </c>
       <c r="AQ94">
-        <v>0.19335637097348246</v>
+        <v>0.19335637097348243</v>
       </c>
       <c r="AR94">
-        <v>5.8944988948430567E-2</v>
+        <v>5.8944988948430574E-2</v>
       </c>
       <c r="AS94">
-        <v>0.20426887097348234</v>
+        <v>0.20426887097348231</v>
       </c>
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B95" t="b">
         <v>0</v>
@@ -8325,13 +8324,13 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.17964549116722828</v>
+        <v>0.17964549116722825</v>
       </c>
       <c r="AQ95">
         <v>0.2558126209734824</v>
       </c>
       <c r="AR95">
-        <v>0.17964549116722828</v>
+        <v>0.17964549116722825</v>
       </c>
       <c r="AS95">
         <v>0.23631262097348241</v>
@@ -8339,7 +8338,7 @@
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B96" t="b">
         <v>0</v>
@@ -8438,13 +8437,13 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>0.17964549116722828</v>
+        <v>0.17964549116722825</v>
       </c>
       <c r="AQ96">
         <v>0.23631262097348241</v>
       </c>
       <c r="AR96">
-        <v>0.17964549116722828</v>
+        <v>0.17964549116722825</v>
       </c>
       <c r="AS96">
         <v>0.1988126209734824</v>
@@ -8452,7 +8451,7 @@
     </row>
     <row r="97" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -8554,50 +8553,50 @@
         <v>6.8395491167228289E-2</v>
       </c>
       <c r="AQ97">
-        <v>0.26581262097348218</v>
+        <v>0.26581262097348213</v>
       </c>
       <c r="AR97">
         <v>0.14639549116722828</v>
       </c>
       <c r="AS97">
-        <v>0.26581262097348218</v>
+        <v>0.26581262097348213</v>
       </c>
     </row>
     <row r="98" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="J98" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B99" t="b">
         <v>0</v>
@@ -8629,69 +8628,69 @@
     </row>
     <row r="100" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="J100" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="K100" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="L100" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="N100" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="N100" s="4" t="s">
+      <c r="O100" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="O100" s="4" t="s">
+      <c r="P100" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="Q100" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Q100" s="4" t="s">
+      <c r="R100" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="R100" s="4" t="s">
+      <c r="S100" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="S100" s="4" t="s">
+      <c r="T100" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="T100" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B101" t="b">
         <v>0</v>
@@ -8753,7 +8752,7 @@
     </row>
     <row r="102" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B102" t="b">
         <v>0</v>
@@ -8815,7 +8814,7 @@
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B103" t="b">
         <v>0</v>
@@ -8877,7 +8876,7 @@
     </row>
     <row r="104" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B104" t="b">
         <v>0</v>
@@ -8939,39 +8938,39 @@
     </row>
     <row r="105" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>172</v>
       </c>
       <c r="I105" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B106" t="b">
         <v>0</v>
@@ -9255,13 +9254,13 @@
         <v>137</v>
       </c>
       <c r="H110" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I110" s="2">
         <v>43828.534212962964</v>
       </c>
       <c r="J110" s="2">
-        <v>44446.440254629626</v>
+        <v>44778.599699074075</v>
       </c>
       <c r="K110">
         <v>7.5390367588535021E-11</v>
@@ -9590,13 +9589,13 @@
         <v>137</v>
       </c>
       <c r="H114" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I114" s="2">
         <v>43828.534212962964</v>
       </c>
       <c r="J114" s="2">
-        <v>44446.440254629626</v>
+        <v>44778.599699074075</v>
       </c>
       <c r="K114">
         <v>7.5390367588535021E-11</v>
@@ -9670,7 +9669,7 @@
     </row>
     <row r="115" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>50</v>
@@ -9682,132 +9681,132 @@
         <v>61</v>
       </c>
       <c r="E115" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="G115" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="H115" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="I115" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="L115" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L115" s="4" t="s">
+      <c r="M115" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M115" s="4" t="s">
+      <c r="N115" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="N115" s="4" t="s">
+      <c r="O115" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="O115" s="4" t="s">
+      <c r="P115" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="P115" s="4" t="s">
+      <c r="Q115" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="Q115" s="4" t="s">
+      <c r="R115" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="R115" s="4" t="s">
+      <c r="S115" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="S115" s="4" t="s">
+      <c r="T115" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T115" s="4" t="s">
+      <c r="U115" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="U115" s="4" t="s">
+      <c r="V115" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="V115" s="4" t="s">
+      <c r="W115" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="W115" s="4" t="s">
+      <c r="X115" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="X115" s="4" t="s">
+      <c r="Y115" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="Y115" s="4" t="s">
+      <c r="Z115" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Z115" s="4" t="s">
+      <c r="AA115" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AA115" s="4" t="s">
+      <c r="AB115" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AB115" s="4" t="s">
+      <c r="AC115" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AC115" s="4" t="s">
+      <c r="AD115" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AD115" s="4" t="s">
+      <c r="AE115" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AE115" s="4" t="s">
+      <c r="AF115" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AF115" s="4" t="s">
+      <c r="AG115" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AG115" s="4" t="s">
+      <c r="AH115" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AH115" s="4" t="s">
+      <c r="AI115" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AI115" s="4" t="s">
+      <c r="AJ115" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AJ115" s="4" t="s">
+      <c r="AK115" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AK115" s="4" t="s">
+      <c r="AL115" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="AL115" s="4" t="s">
+      <c r="AM115" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AM115" s="4" t="s">
+      <c r="AN115" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AN115" s="4" t="s">
+      <c r="AO115" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AO115" s="4" t="s">
+      <c r="AP115" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AP115" s="4" t="s">
+      <c r="AQ115" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AQ115" s="4" t="s">
+      <c r="AR115" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AR115" s="4" t="s">
+      <c r="AS115" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="AS115" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116" t="b">
         <v>0</v>
@@ -9846,16 +9845,16 @@
         <v>-1</v>
       </c>
       <c r="N116" t="s">
+        <v>310</v>
+      </c>
+      <c r="O116" t="s">
+        <v>310</v>
+      </c>
+      <c r="P116" t="s">
         <v>311</v>
       </c>
-      <c r="O116" t="s">
+      <c r="Q116" t="s">
         <v>311</v>
-      </c>
-      <c r="P116" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>312</v>
       </c>
       <c r="V116">
         <v>3</v>
@@ -9921,7 +9920,7 @@
         <v>0.2303718993615656</v>
       </c>
       <c r="AQ116">
-        <v>0.1005866314456197</v>
+        <v>0.10058663144561968</v>
       </c>
       <c r="AR116">
         <v>0</v>
@@ -9932,22 +9931,22 @@
     </row>
     <row r="117" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B117" t="b">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0.1605123970470855</v>
+        <v>0.25319803678066544</v>
       </c>
       <c r="D117">
-        <v>0.11230296262948869</v>
+        <v>0.15637052385904854</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -9968,19 +9967,13 @@
         <v>-2</v>
       </c>
       <c r="M117">
-        <v>2</v>
-      </c>
-      <c r="P117" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>312</v>
+        <v>-1</v>
       </c>
       <c r="V117">
-        <v>44.999999999999901</v>
+        <v>12</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X117">
         <v>1</v>
@@ -9995,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC117">
         <v>2</v>
@@ -10007,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>2.8284271247462027</v>
+        <v>12</v>
       </c>
       <c r="AG117">
         <v>0</v>
@@ -10028,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="AM117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN117">
         <v>0</v>
@@ -10037,16 +10030,16 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>0.18869803678066546</v>
+        <v>0.26219803678066544</v>
       </c>
       <c r="AQ117">
-        <v>9.6268556282157178E-2</v>
+        <v>0.15426855628215735</v>
       </c>
       <c r="AR117">
-        <v>0</v>
+        <v>0.24419803678066546</v>
       </c>
       <c r="AS117">
-        <v>0</v>
+        <v>0.15426855628215735</v>
       </c>
     </row>
     <row r="118" spans="1:45" x14ac:dyDescent="0.5">
@@ -10057,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0.25319803678066544</v>
+        <v>0.22844803678066547</v>
       </c>
       <c r="D118">
-        <v>0.15637052385904854</v>
+        <v>0.16837052385904855</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -10090,7 +10083,7 @@
         <v>-1</v>
       </c>
       <c r="V118">
-        <v>12</v>
+        <v>20.999999999999996</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -10120,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>12</v>
+        <v>20.999999999999996</v>
       </c>
       <c r="AG118">
         <v>0</v>
@@ -10150,30 +10143,30 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>0.26219803678066544</v>
+        <v>0.21269803678066546</v>
       </c>
       <c r="AQ118">
-        <v>0.15426855628215735</v>
+        <v>0.16626855628215736</v>
       </c>
       <c r="AR118">
-        <v>0.24419803678066546</v>
+        <v>0.24419803678066548</v>
       </c>
       <c r="AS118">
-        <v>0.15426855628215735</v>
+        <v>0.16626855628215736</v>
       </c>
     </row>
     <row r="119" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B119" t="b">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0.22844803678066547</v>
+        <v>0.2083487194865016</v>
       </c>
       <c r="D119">
-        <v>0.16837052385904855</v>
+        <v>0.16237052385904854</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -10203,7 +10196,7 @@
         <v>-1</v>
       </c>
       <c r="V119">
-        <v>20.999999999999996</v>
+        <v>5.9999999999999982</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -10221,10 +10214,10 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD119">
         <v>0</v>
@@ -10233,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>20.999999999999996</v>
+        <v>5.9999999999999982</v>
       </c>
       <c r="AG119">
         <v>0</v>
@@ -10251,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AN119">
         <v>0</v>
@@ -10266,13 +10259,13 @@
         <v>0.21269803678066546</v>
       </c>
       <c r="AQ119">
-        <v>0.16626855628215736</v>
+        <v>0.16026855628215736</v>
       </c>
       <c r="AR119">
-        <v>0.24419803678066548</v>
+        <v>0.22169803678066544</v>
       </c>
       <c r="AS119">
-        <v>0.16626855628215736</v>
+        <v>0.16026855628215736</v>
       </c>
     </row>
     <row r="120" spans="1:45" x14ac:dyDescent="0.5">
@@ -10283,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.2083487194865016</v>
+        <v>0.23744803678066548</v>
       </c>
       <c r="D120">
-        <v>0.16237052385904854</v>
+        <v>0.1563705238590487</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -10316,7 +10309,7 @@
         <v>-1</v>
       </c>
       <c r="V120">
-        <v>5.9999999999999982</v>
+        <v>8.9999999999999609</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -10334,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD120">
         <v>0</v>
@@ -10346,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>5.9999999999999982</v>
+        <v>8.9999999999999609</v>
       </c>
       <c r="AG120">
         <v>0</v>
@@ -10364,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AN120">
         <v>0</v>
@@ -10376,36 +10369,36 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>0.21269803678066546</v>
+        <v>0.24419803678066546</v>
       </c>
       <c r="AQ120">
-        <v>0.16026855628215736</v>
+        <v>0.15426855628215752</v>
       </c>
       <c r="AR120">
-        <v>0.22169803678066544</v>
+        <v>0.2306980367806655</v>
       </c>
       <c r="AS120">
-        <v>0.16026855628215736</v>
+        <v>0.15426855628215752</v>
       </c>
     </row>
     <row r="121" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>0.23744803678066548</v>
+        <v>0.1605123970470855</v>
       </c>
       <c r="D121">
-        <v>0.1563705238590487</v>
+        <v>0.11230296262948869</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10426,28 +10419,34 @@
         <v>-2</v>
       </c>
       <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="P121" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>311</v>
+      </c>
+      <c r="V121">
+        <v>135</v>
+      </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <v>1</v>
+      </c>
+      <c r="Y121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB121">
         <v>-1</v>
-      </c>
-      <c r="V121">
-        <v>8.9999999999999609</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>1</v>
-      </c>
-      <c r="Y121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB121">
-        <v>0</v>
       </c>
       <c r="AC121">
         <v>2</v>
@@ -10459,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>8.9999999999999609</v>
+        <v>2.8284271247462027</v>
       </c>
       <c r="AG121">
         <v>0</v>
@@ -10480,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="AM121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN121">
         <v>0</v>
@@ -10489,53 +10488,53 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>0.24419803678066546</v>
+        <v>0.18869803678066546</v>
       </c>
       <c r="AQ121">
-        <v>0.15426855628215752</v>
+        <v>9.6268556282157178E-2</v>
       </c>
       <c r="AR121">
-        <v>0.2306980367806655</v>
+        <v>0</v>
       </c>
       <c r="AS121">
-        <v>0.15426855628215752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A122" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="F122" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="G122" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="H122" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="I122" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I122" s="4" t="s">
+      <c r="J122" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B123" t="b">
         <v>0</v>
@@ -10641,7 +10640,7 @@
     </row>
     <row r="125" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B125" t="b">
         <v>0</v>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00B67D6-73A8-46BB-B4CB-CDEA8135F2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829B4897-803C-4FD6-9F06-3ADE4138F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{31060D36-9F5D-4B51-9FBB-7E4A7987C25C}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{ECBC492E-9431-4406-9EF6-0B6709821347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1390,12 +1390,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8E1BFF-5F61-4FA9-B493-715952927171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B7EA0-A19B-4778-BD9C-89F8D254918C}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V106" workbookViewId="0">
-      <selection activeCell="X121" sqref="X121"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -10428,7 +10426,7 @@
         <v>311</v>
       </c>
       <c r="V121">
-        <v>135</v>
+        <v>44.999999999999901</v>
       </c>
       <c r="W121">
         <v>1</v>

--- a/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_01_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_01_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829B4897-803C-4FD6-9F06-3ADE4138F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D65B0A18-1B60-4473-84D6-2BF8B7AD7F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{ECBC492E-9431-4406-9EF6-0B6709821347}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{DB2074EA-1F4B-4D63-95D3-F0C4D2335B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B7EA0-A19B-4778-BD9C-89F8D254918C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A300B-F451-4D08-970A-35250DCA9EF0}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6519,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8238,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8351,7 +8351,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -10396,7 +10396,7 @@
         <v>10</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>1</v>
